--- a/Proyecto final/Estimaciones.xlsx
+++ b/Proyecto final/Estimaciones.xlsx
@@ -18,18 +18,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
-    <t>Tarea</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
     <t>epicas&gt;historias&gt;tareas</t>
   </si>
   <si>
-    <t>Investigar sobre librerías de detección de personas</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -305,9 +299,6 @@
     <t>Planificacion(10%)</t>
   </si>
   <si>
-    <t>Examenes Finales, Vacaciones(25%)</t>
-  </si>
-  <si>
     <t>Tiempo Estimado(horas)</t>
   </si>
   <si>
@@ -339,6 +330,15 @@
   </si>
   <si>
     <t>2 semana en progreso</t>
+  </si>
+  <si>
+    <t>Investigar sobre librerías de vision computer</t>
+  </si>
+  <si>
+    <t>Examenes Finales, Vacaciones(20%)</t>
+  </si>
+  <si>
+    <t>User History</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -709,24 +709,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <f>SUM(C2:C5,C14,C15,C16)</f>
@@ -789,7 +789,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <f>SUM(C6:C9)</f>
@@ -838,7 +838,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>34</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>272</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <f>168*2</f>
@@ -907,7 +907,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <f>SUM(B2:B12)</f>
@@ -920,7 +920,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <f>SUM(C17:C19,C21:C22)</f>
@@ -955,7 +955,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <f>SUM(C24:C25,C27)</f>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B15:B19)</f>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" s="4">
         <f>SUM(B28,B26,B23,B20,B13)</f>
@@ -1145,7 +1145,7 @@
         <v>1616</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>406</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>271</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="D32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>203</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>124.6</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4">
         <f>0.03*C30</f>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4">
         <f>0.05*C30</f>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="4">
         <f>0.1*C30</f>
@@ -1225,28 +1225,28 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
-        <v>37</v>
+      <c r="A40" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C40" s="4">
-        <f>0.25*C30</f>
-        <v>404</v>
+        <f>0.2*C30</f>
+        <v>323.20000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto final/Estimaciones.xlsx
+++ b/Proyecto final/Estimaciones.xlsx
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Proyecto final/Estimaciones.xlsx
+++ b/Proyecto final/Estimaciones.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Sprint</t>
   </si>
@@ -123,6 +123,20 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Investigar sobre librerías de reconocimiento e interaccion dinámica de imágenes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">  </t>
     </r>
     <r>
@@ -132,22 +146,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Investigar sobre librerías de descripción y representación de imágenes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Investigar sobre librerías de reconocimiento e interaccion dinámica de imágenes.</t>
-    </r>
+      <t>Investigar sobre librerías de reconocimiento de gestos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <r>
@@ -160,11 +163,39 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Investigar sobre librerías de reconocimiento de gestos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Total</t>
+      <t>Investigar sobre librerías de software y drivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Investigar sobre métodos y formatos de imágenes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Investigar sobre métodos de adquisición de imágenes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Investigar sobre factores físicos contextuales involucrados en la captura de imágenes</t>
+    </r>
   </si>
   <si>
     <r>
@@ -177,11 +208,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Investigar sobre librerías de software y drivers</t>
-    </r>
-  </si>
-  <si>
-    <t>Investigar sobre métodos y formatos de imágenes</t>
+      <t>Investigar sobre técnicas de rendimiento de captura</t>
+    </r>
+  </si>
+  <si>
+    <t>Investigar sobre métodos y técnicas de calibración</t>
   </si>
   <si>
     <r>
@@ -194,8 +225,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Investigar sobre métodos de adquisición de imágenes</t>
-    </r>
+      <t>Desarrollar informes y mediciones para evaluar estrategias de mercadotecnia</t>
+    </r>
+  </si>
+  <si>
+    <t>Generar bases de datos de clientes y productos para cada tipo de publicidad.</t>
   </si>
   <si>
     <r>
@@ -208,8 +242,92 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Investigar sobre factores físicos contextuales involucrados en la captura de imágenes</t>
-    </r>
+      <t>Aplicación de Data Mining  a técnicas de marketing directo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Combinacion de datamining con data marketing</t>
+  </si>
+  <si>
+    <t>Desarrollar informes con resultados orientados a la mercadotecnia y economía</t>
+  </si>
+  <si>
+    <t>Dias de 4hs</t>
+  </si>
+  <si>
+    <t>(Representa 40% del Proyecto)</t>
+  </si>
+  <si>
+    <t>Dias de 6hs</t>
+  </si>
+  <si>
+    <t>Dias de 8hs</t>
+  </si>
+  <si>
+    <t>Testing (20%)(324,6hs)</t>
+  </si>
+  <si>
+    <t>Unitarias</t>
+  </si>
+  <si>
+    <t>Integracion</t>
+  </si>
+  <si>
+    <t>Esfuerzo</t>
+  </si>
+  <si>
+    <t>Despliegue(3%)</t>
+  </si>
+  <si>
+    <t>Documentacion(5%)</t>
+  </si>
+  <si>
+    <t>Planificacion(10%)</t>
+  </si>
+  <si>
+    <t>Tiempo Estimado(horas)</t>
+  </si>
+  <si>
+    <t>Esfuerzo Estimado(poker planning)</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>4 semanas</t>
+  </si>
+  <si>
+    <t>sprint 6</t>
+  </si>
+  <si>
+    <t>sprint 5</t>
+  </si>
+  <si>
+    <t>sprint 4</t>
+  </si>
+  <si>
+    <t>sprint 3</t>
+  </si>
+  <si>
+    <t>sprint 1</t>
+  </si>
+  <si>
+    <t>sprint 2</t>
+  </si>
+  <si>
+    <t>2 semana en progreso</t>
+  </si>
+  <si>
+    <t>Investigar sobre librerías de vision computer</t>
+  </si>
+  <si>
+    <t>Examenes Finales, Vacaciones(20%)</t>
+  </si>
+  <si>
+    <t>User History</t>
+  </si>
+  <si>
+    <t>sprint 7</t>
   </si>
   <si>
     <r>
@@ -222,123 +340,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Investigar sobre técnicas de rendimiento de captura</t>
-    </r>
-  </si>
-  <si>
-    <t>Investigar sobre métodos y técnicas de calibración</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Desarrollar informes y mediciones para evaluar estrategias de mercadotecnia</t>
-    </r>
-  </si>
-  <si>
-    <t>Generar bases de datos de clientes y productos para cada tipo de publicidad.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aplicación de Data Mining  a técnicas de marketing directo.</t>
-    </r>
-  </si>
-  <si>
-    <t>Combinacion de datamining con data marketing</t>
-  </si>
-  <si>
-    <t>Desarrollar informes con resultados orientados a la mercadotecnia y economía</t>
-  </si>
-  <si>
-    <t>Dias de 4hs</t>
-  </si>
-  <si>
-    <t>(Representa 40% del Proyecto)</t>
-  </si>
-  <si>
-    <t>Dias de 6hs</t>
-  </si>
-  <si>
-    <t>Dias de 8hs</t>
-  </si>
-  <si>
-    <t>Testing (20%)(324,6hs)</t>
-  </si>
-  <si>
-    <t>Unitarias</t>
-  </si>
-  <si>
-    <t>Integracion</t>
-  </si>
-  <si>
-    <t>Esfuerzo</t>
-  </si>
-  <si>
-    <t>Despliegue(3%)</t>
-  </si>
-  <si>
-    <t>Documentacion(5%)</t>
-  </si>
-  <si>
-    <t>Planificacion(10%)</t>
-  </si>
-  <si>
-    <t>Tiempo Estimado(horas)</t>
-  </si>
-  <si>
-    <t>Esfuerzo Estimado(poker planning)</t>
-  </si>
-  <si>
-    <t>sprint</t>
-  </si>
-  <si>
-    <t>4 semanas</t>
-  </si>
-  <si>
-    <t>sprint 6</t>
-  </si>
-  <si>
-    <t>sprint 5</t>
-  </si>
-  <si>
-    <t>sprint 4</t>
-  </si>
-  <si>
-    <t>sprint 3</t>
-  </si>
-  <si>
-    <t>sprint 1</t>
-  </si>
-  <si>
-    <t>sprint 2</t>
-  </si>
-  <si>
-    <t>2 semana en progreso</t>
-  </si>
-  <si>
-    <t>Investigar sobre librerías de vision computer</t>
-  </si>
-  <si>
-    <t>Examenes Finales, Vacaciones(20%)</t>
-  </si>
-  <si>
-    <t>User History</t>
+      <t>Investigar sobre librerías de reconocimiento y clasficiacion de los objetos representados</t>
+    </r>
+  </si>
+  <si>
+    <t>Investigar sobre librerias de representacion y descripcion de imágenes como objetos</t>
   </si>
 </sst>
 </file>
@@ -695,27 +701,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" style="1"/>
-    <col min="2" max="2" width="19.5703125"/>
+    <col min="1" max="1" width="83.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -726,7 +732,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -780,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <f>SUM(C2:C5,C14,C15,C16)</f>
+        <f>SUM(C2:C5,C15,C16,C17)</f>
         <v>232</v>
       </c>
     </row>
@@ -829,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <f>SUM(C6:C9)</f>
@@ -851,14 +857,14 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B10">
         <v>34</v>
       </c>
       <c r="C10">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -866,27 +872,27 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>272</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -895,46 +901,52 @@
         <v>168</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>168</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
         <f>168*2</f>
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUM(B2:B13)</f>
+        <v>169</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM(C2:C13)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <f>SUM(B2:B12)</f>
-        <v>135</v>
-      </c>
-      <c r="C13" s="4">
-        <f>SUM(C2:C12)</f>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -946,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15">
-        <f>SUM(C17:C19,C21:C22)</f>
+        <f>SUM(C18:C20,C22:C23)</f>
         <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
+      <c r="A16" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -969,21 +981,21 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>64</v>
-      </c>
       <c r="D17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -992,85 +1004,88 @@
         <v>64</v>
       </c>
       <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <f>SUM(C25:C26,C28)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18">
-        <f>SUM(C24:C25,C27)</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUM(B16:B20)</f>
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUM(C16:C20)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>40</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4">
-        <f>SUM(B15:B19)</f>
-        <v>23</v>
-      </c>
-      <c r="C20" s="4">
-        <f>SUM(C15:C19)</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
+      <c r="B23">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>64</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>104</v>
+      <c r="D23">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5" t="s">
-        <v>21</v>
+      <c r="A24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -1078,13 +1093,10 @@
       <c r="C24">
         <v>104</v>
       </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
-        <v>22</v>
+      <c r="A25" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -1093,37 +1105,37 @@
         <v>104</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
+      <c r="A26" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>104</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-    </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7" t="s">
-        <v>12</v>
+      <c r="A28" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1131,122 +1143,136 @@
       <c r="C28">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4">
-        <f>SUM(B28,B26,B23,B20,B13)</f>
-        <v>202</v>
-      </c>
-      <c r="C30" s="4">
-        <f>SUM(C28,C26,C23,C20,C13)</f>
-        <v>1616</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>406</v>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <f>SUM(B29,B27,B24,B21,B14)</f>
+        <v>236</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUM(C29,C27,C24,C21,C14)</f>
+        <v>1616</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E32">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="D33" t="s">
         <v>26</v>
       </c>
-      <c r="E31">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32" t="s">
+      <c r="E33">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E32">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="B35" t="s">
         <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" t="s">
-        <v>30</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C36">
-        <v>124.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7" t="s">
+      <c r="C38" s="4">
+        <f>0.03*C31</f>
+        <v>48.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4">
-        <f>0.03*C30</f>
-        <v>48.48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
+      <c r="C39" s="4">
+        <f>0.05*C31</f>
+        <v>80.800000000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4">
-        <f>0.05*C30</f>
-        <v>80.800000000000011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="4">
-        <f>0.1*C30</f>
+      <c r="C40" s="4">
+        <f>0.1*C31</f>
         <v>161.60000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="4">
-        <f>0.2*C30</f>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4">
+        <f>0.2*C31</f>
         <v>323.20000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto final/Estimaciones.xlsx
+++ b/Proyecto final/Estimaciones.xlsx
@@ -385,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -405,6 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +703,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1109,7 +1110,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B26">
@@ -1134,7 +1135,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B28">
